--- a/obscura.xlsx
+++ b/obscura.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="119">
   <si>
     <t xml:space="preserve">Team Name</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t xml:space="preserve">adityamiskin98@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amodh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amodhshenoy@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -507,9 +513,9 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="A65" activeCellId="0" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1215,11 +1221,25 @@
         <v>95</v>
       </c>
     </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>9110837927</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C64" r:id="rId1" display="amodhshenoy@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
